--- a/Algoritmai.xlsx
+++ b/Algoritmai.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18960" windowHeight="11835"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18960" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -126,7 +126,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1300,14 +1299,25 @@
       <c r="A52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="B52" s="7">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="C52" s="7">
+        <v>3.0186999999999999</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3.8569</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1.3152999999999999</v>
+      </c>
+      <c r="F52" s="7">
+        <v>-0.63219999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
